--- a/report/基本設計書/基本設計書_I0003_メイン画面.xlsx
+++ b/report/基本設計書/基本設計書_I0003_メイン画面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="16665" windowHeight="10950"/>
+    <workbookView xWindow="7020" yWindow="0" windowWidth="16665" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -494,10 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>boardUpdateTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>boardCreater</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,10 +590,6 @@
   <si>
     <t>IE0006</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No4~8を押下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IE0003</t>
@@ -751,22 +743,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掲示板_更新日時</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>YY/MM/DD HH:DD:SS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YY/MM/DD HH:DD:SS</t>
-    <phoneticPr fontId="1"/>
+    <t>No4~7を押下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1872,82 +1854,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>170930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>2559</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>187208</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="타원 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5554980" y="1856855"/>
-          <a:ext cx="248304" cy="254403"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>148590</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -2243,7 +2149,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2315,347 +2221,404 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>201280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>33071</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="그룹 19"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514599" y="2114549"/>
-          <a:ext cx="4067175" cy="1552575"/>
-          <a:chOff x="8648700" y="2486025"/>
-          <a:chExt cx="3257550" cy="1371600"/>
+          <a:off x="2514599" y="2125330"/>
+          <a:ext cx="4067175" cy="1498666"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직사각형 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8648700" y="2495549"/>
-            <a:ext cx="3257550" cy="1323975"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="직선 연결선 8"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="8905875" y="2486025"/>
-            <a:ext cx="0" cy="1343025"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="직선 연결선 14"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="10658475" y="2495550"/>
-            <a:ext cx="0" cy="1343025"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="직선 연결선 15"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8648700" y="2743201"/>
-            <a:ext cx="3257550" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="직선 연결선 16"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8648700" y="3028951"/>
-            <a:ext cx="3257550" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="직선 연결선 17"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8648700" y="3295651"/>
-            <a:ext cx="3257550" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="직선 연결선 18"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8648700" y="3590926"/>
-            <a:ext cx="3257550" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="직선 연결선 21"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="11029950" y="2514600"/>
-            <a:ext cx="0" cy="1343025"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="직선 연결선 22"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="11401425" y="2495550"/>
-            <a:ext cx="0" cy="1343025"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>73442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>73442</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43854</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2835692" y="2114549"/>
+          <a:ext cx="0" cy="1520230"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>51829</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>201281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>51829</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54636</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="직선 연결선 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5023879" y="2125331"/>
+          <a:ext cx="0" cy="1520230"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5358</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="직선 연결선 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514599" y="2405658"/>
+          <a:ext cx="4067175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 연결선 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514599" y="2729111"/>
+          <a:ext cx="4067175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 연결선 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514599" y="3031001"/>
+          <a:ext cx="4067175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="직선 연결선 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514599" y="3365236"/>
+          <a:ext cx="4067175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>150756</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>201281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>150756</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54636</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 연결선 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5951481" y="2125331"/>
+          <a:ext cx="0" cy="1520230"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2727,7 +2690,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2952,13 +2915,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -2975,8 +2938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="3557587"/>
-          <a:ext cx="485775" cy="223838"/>
+          <a:off x="4048125" y="3557587"/>
+          <a:ext cx="238125" cy="223838"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3018,7 +2981,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>9</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3094,7 +3057,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>10</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3170,7 +3133,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>11</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3246,7 +3209,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>12</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3322,7 +3285,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>13</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3461,7 +3424,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>15</a:t>
+            <a:t>14</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3539,7 +3502,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>16</a:t>
+            <a:t>15</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4641,7 +4604,7 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -5212,10 +5175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5564,7 +5527,7 @@
       <c r="H8" s="43"/>
       <c r="I8" s="48"/>
       <c r="J8" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="39" t="s">
@@ -5574,7 +5537,7 @@
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
       <c r="P8" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
@@ -5585,7 +5548,7 @@
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
@@ -5614,13 +5577,13 @@
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
       <c r="F9" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="48"/>
       <c r="J9" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="39" t="s">
@@ -5641,7 +5604,7 @@
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X9" s="50"/>
       <c r="Y9" s="50"/>
@@ -5663,20 +5626,20 @@
       <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>69</v>
+      <c r="B10" s="51" t="s">
+        <v>70</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="42" t="s">
-        <v>76</v>
+      <c r="F10" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
       <c r="I10" s="48"/>
       <c r="J10" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="43"/>
       <c r="L10" s="39" t="s">
@@ -5692,18 +5655,18 @@
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="42" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
+        <v>35</v>
+      </c>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
       <c r="AA10" s="42">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="41"/>
       <c r="AC10" s="40" t="s">
@@ -5711,7 +5674,7 @@
       </c>
       <c r="AD10" s="40"/>
       <c r="AE10" s="42" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AF10" s="44"/>
     </row>
@@ -5719,20 +5682,20 @@
       <c r="A11" s="46">
         <v>7</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>127</v>
+      <c r="B11" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
-      <c r="F11" s="39" t="s">
-        <v>77</v>
+      <c r="F11" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="48"/>
       <c r="J11" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="43"/>
       <c r="L11" s="39" t="s">
@@ -5742,22 +5705,22 @@
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
       <c r="P11" s="39" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
       <c r="T11" s="42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
       <c r="W11" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
+        <v>35</v>
+      </c>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
       <c r="AA11" s="42">
         <v>17</v>
       </c>
@@ -5767,7 +5730,7 @@
       </c>
       <c r="AD11" s="40"/>
       <c r="AE11" s="42" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AF11" s="44"/>
     </row>
@@ -5776,29 +5739,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="39" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="48"/>
       <c r="J12" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="43"/>
-      <c r="L12" s="39" t="s">
-        <v>28</v>
+      <c r="L12" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="39" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
@@ -5808,14 +5771,14 @@
       </c>
       <c r="U12" s="43"/>
       <c r="V12" s="43"/>
-      <c r="W12" s="42" t="s">
-        <v>96</v>
+      <c r="W12" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="X12" s="43"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
-      <c r="AA12" s="42">
-        <v>20</v>
+      <c r="AA12" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="AB12" s="41"/>
       <c r="AC12" s="40" t="s">
@@ -5831,45 +5794,45 @@
       <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="48"/>
+      <c r="B13" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="43"/>
+        <v>93</v>
+      </c>
+      <c r="K13" s="40"/>
       <c r="L13" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="39" t="s">
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
       <c r="T13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
       <c r="W13" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
+        <v>96</v>
+      </c>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="42" t="s">
         <v>26</v>
       </c>
@@ -5888,29 +5851,29 @@
         <v>10</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="41"/>
       <c r="J14" s="42" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K14" s="40"/>
-      <c r="L14" s="42" t="s">
-        <v>72</v>
+      <c r="L14" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="42" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
@@ -5920,8 +5883,8 @@
       </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
-      <c r="W14" s="39" t="s">
-        <v>97</v>
+      <c r="W14" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
@@ -5950,13 +5913,13 @@
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="41"/>
       <c r="J15" s="42" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="39" t="s">
@@ -5966,7 +5929,7 @@
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
       <c r="P15" s="42" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="40"/>
@@ -6000,29 +5963,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
       <c r="J16" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="40"/>
-      <c r="L16" s="39" t="s">
-        <v>28</v>
+      <c r="L16" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="42" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
@@ -6032,8 +5995,8 @@
       </c>
       <c r="U16" s="40"/>
       <c r="V16" s="40"/>
-      <c r="W16" s="42" t="s">
-        <v>65</v>
+      <c r="W16" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
@@ -6056,19 +6019,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
       <c r="J17" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="40"/>
       <c r="L17" s="42" t="s">
@@ -6111,169 +6074,147 @@
       <c r="A18" s="46">
         <v>14</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="K18" s="43"/>
       <c r="L18" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
       <c r="W18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
       <c r="AA18" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" s="43"/>
       <c r="AE18" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF18" s="44"/>
+        <v>65</v>
+      </c>
+      <c r="AF18" s="52"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
       <c r="A19" s="46">
         <v>15</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="39" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="48"/>
       <c r="J19" s="42" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="K19" s="43"/>
-      <c r="L19" s="42" t="s">
-        <v>72</v>
+      <c r="L19" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
       <c r="P19" s="39" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
       <c r="T19" s="39" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="39" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
-      <c r="AA19" s="42" t="s">
+      <c r="AA19" s="39" t="s">
         <v>27</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="43" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AD19" s="43"/>
-      <c r="AE19" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF19" s="52"/>
+      <c r="AE19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF19" s="49"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A20" s="46">
-        <v>16</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="46"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="39" t="s">
-        <v>41</v>
-      </c>
+      <c r="F20" s="39"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="48"/>
-      <c r="J20" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="J20" s="42"/>
       <c r="K20" s="43"/>
-      <c r="L20" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="L20" s="42"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
-      <c r="P20" s="39" t="s">
-        <v>42</v>
-      </c>
+      <c r="P20" s="39"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
-      <c r="T20" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="T20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
-      <c r="W20" s="39" t="s">
-        <v>26</v>
-      </c>
+      <c r="W20" s="39"/>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
-      <c r="AA20" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA20" s="39"/>
       <c r="AB20" s="48"/>
-      <c r="AC20" s="43" t="s">
-        <v>27</v>
-      </c>
+      <c r="AC20" s="43"/>
       <c r="AD20" s="43"/>
-      <c r="AE20" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF20" s="49"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="52"/>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1">
       <c r="A21" s="46"/>
@@ -6287,7 +6228,7 @@
       <c r="I21" s="48"/>
       <c r="J21" s="42"/>
       <c r="K21" s="43"/>
-      <c r="L21" s="42"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
@@ -6295,19 +6236,19 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
       <c r="S21" s="43"/>
-      <c r="T21" s="39"/>
+      <c r="T21" s="42"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
-      <c r="W21" s="39"/>
+      <c r="W21" s="42"/>
       <c r="X21" s="43"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
       <c r="AE21" s="42"/>
-      <c r="AF21" s="52"/>
+      <c r="AF21" s="44"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1">
       <c r="A22" s="46"/>
@@ -6411,7 +6352,7 @@
       <c r="AE24" s="42"/>
       <c r="AF24" s="52"/>
     </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="46"/>
       <c r="B25" s="51"/>
       <c r="C25" s="47"/>
@@ -6421,9 +6362,9 @@
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="42"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="42"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="43"/>
       <c r="N25" s="43"/>
       <c r="O25" s="43"/>
@@ -6442,81 +6383,47 @@
       <c r="AB25" s="48"/>
       <c r="AC25" s="43"/>
       <c r="AD25" s="43"/>
-      <c r="AE25" s="42"/>
+      <c r="AE25" s="39"/>
       <c r="AF25" s="52"/>
     </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="52"/>
-    </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="97"/>
+    <row r="26" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="97"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6525,7 +6432,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -6676,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -6689,14 +6596,14 @@
       <c r="I5" s="47"/>
       <c r="J5" s="55"/>
       <c r="K5" s="56" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="58"/>
       <c r="P5" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
@@ -6720,7 +6627,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -6733,14 +6640,14 @@
       <c r="I6" s="47"/>
       <c r="J6" s="55"/>
       <c r="K6" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
@@ -6764,27 +6671,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="55"/>
       <c r="K7" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
       <c r="P7" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -6808,27 +6715,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="63"/>
       <c r="K8" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="40"/>
       <c r="R8" s="40"/>
@@ -6852,27 +6759,27 @@
         <v>5</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
       <c r="F9" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="63"/>
       <c r="K9" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
@@ -6896,27 +6803,27 @@
         <v>6</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="63"/>
       <c r="K10" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>

--- a/report/基本設計書/基本設計書_I0003_メイン画面.xlsx
+++ b/report/基本設計書/基本設計書_I0003_メイン画面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="0" windowWidth="16665" windowHeight="10950"/>
+    <workbookView xWindow="10530" yWindow="0" windowWidth="16665" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -381,10 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>太寅熊</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I0003</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,14 +390,6 @@
   </si>
   <si>
     <t>2022-03-26</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>main</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>太寅熊</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -437,10 +425,6 @@
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -471,10 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -502,22 +482,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;&lt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -526,40 +490,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板_現在リスト</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_全体リスト</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardBefore</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardAfter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardListTotal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardFirst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardLast</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>boardListPresent</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -568,84 +498,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IE0001</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_最後ボタン</t>
-    <rPh sb="4" eb="6">
-      <t>サイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_次ボタン</t>
-    <rPh sb="4" eb="5">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_最初ボタン</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_前ボタン</t>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_最初ボタンを押下</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_前ボタンを押下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掲示板_次ボタンを押下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>掲示板_作成ボタンを押下</t>
@@ -662,41 +516,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最初に移動</t>
-    <rPh sb="3" eb="5">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掲示板_最後ボタンを押下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後に移動</t>
-    <rPh sb="3" eb="5">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>次に移動</t>
-    <rPh sb="2" eb="4">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前に移動</t>
-    <rPh sb="0" eb="1">
-      <t>ﾏｴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>詳細に移動</t>
     <rPh sb="0" eb="2">
       <t>ｼｮｳｻｲ</t>
@@ -714,28 +533,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最初の掲示板リストを表示する。</t>
-    <rPh sb="10" eb="12">
-      <t>ﾋｮｳｼﾞ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在掲示板リストの前を表示する。</t>
-    <rPh sb="9" eb="10">
-      <t>ﾏｴ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後の掲示板リストを表示する。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在掲示板リストの次を表示する。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>I0005に移動する。</t>
     <rPh sb="6" eb="8">
       <t>ｲﾄﾞｳ</t>
@@ -747,15 +544,109 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No4~7を押下</t>
+    <t>掲示板_リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目修正</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>リスト変更</t>
+    <rPh sb="3" eb="5">
+      <t>ﾍﾝｺｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掲示板_タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板_タイトルを押下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掲示板_リストを押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当リストを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ｶﾞｲﾄｳ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ﾋｮｳｼﾞ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,7 +721,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
@@ -855,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1230,6 +1126,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1239,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1579,9 +1530,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1621,19 +1569,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1659,39 +1628,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>27812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>122249</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>211772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="6852"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885824" y="1238250"/>
-          <a:ext cx="7523175" cy="3733800"/>
+          <a:off x="828675" y="1237487"/>
+          <a:ext cx="6877050" cy="3755835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1702,23 +1664,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>164781</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>193356</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>202881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="타원 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1688,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="1850706"/>
+          <a:off x="1390650" y="1622106"/>
           <a:ext cx="283845" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1778,23 +1740,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>165734</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177163</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3809</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="타원 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3204209" y="1863088"/>
+          <a:off x="1937384" y="1644013"/>
           <a:ext cx="262891" cy="241936"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1855,14 +1817,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>159500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>198638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1870,7 +1832,7 @@
         <xdr:cNvPr id="8" name="타원 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5120640" y="1845425"/>
+          <a:off x="5177790" y="1607300"/>
           <a:ext cx="280035" cy="277263"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1930,23 +1892,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>103524</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88668</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8274</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="1270635"/>
+          <a:off x="876300" y="1556385"/>
           <a:ext cx="236874" cy="265833"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2006,23 +1968,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65424</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179724</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>155343</xdr:rowOff>
+      <xdr:rowOff>117243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="타원 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,8 +1992,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4493895" y="5674995"/>
-          <a:ext cx="234969" cy="248688"/>
+          <a:off x="3810000" y="1537335"/>
+          <a:ext cx="236874" cy="265833"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2083,22 +2045,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>183831</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>34944</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>174306</xdr:rowOff>
+      <xdr:colOff>44469</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>164781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="타원 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="1869756"/>
+          <a:off x="6162675" y="1622106"/>
           <a:ext cx="234969" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2158,488 +2120,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="사각형 설명선 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="2419350"/>
-          <a:ext cx="838200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 58712"/>
-            <a:gd name="adj2" fmla="val -116667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>変更予定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>201280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244494</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514599" y="2125330"/>
-          <a:ext cx="4067175" cy="1498666"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>73442</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>73442</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43854</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="직선 연결선 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2835692" y="2114549"/>
-          <a:ext cx="0" cy="1520230"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>51829</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>201281</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>51829</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>54636</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="직선 연결선 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5023879" y="2125331"/>
-          <a:ext cx="0" cy="1520230"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>5358</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>5358</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="직선 연결선 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514599" y="2405658"/>
-          <a:ext cx="4067175" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90686</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="직선 연결선 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514599" y="2729111"/>
-          <a:ext cx="4067175" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154451</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="직선 연결선 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514599" y="3031001"/>
-          <a:ext cx="4067175" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12436</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12436</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="직선 연결선 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514599" y="3365236"/>
-          <a:ext cx="4067175" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>150756</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>201281</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>150756</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>54636</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="직선 연결선 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5951481" y="2125331"/>
-          <a:ext cx="0" cy="1520230"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>244494</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="타원 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2144,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="3948112"/>
+          <a:off x="4152900" y="3548062"/>
           <a:ext cx="234969" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2699,153 +2196,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600450" y="3676650"/>
-          <a:ext cx="1981200" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>&lt;&lt;     &lt;     1/1     &gt;     &gt;&gt;</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1924050" y="1314450"/>
-          <a:ext cx="676275" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>board</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156864</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147339</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -2854,7 +2212,7 @@
         <xdr:cNvPr id="27" name="타원 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2684145" y="1303020"/>
+          <a:off x="1569720" y="1303020"/>
           <a:ext cx="234969" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2914,23 +2272,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="타원 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2296,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="3557587"/>
+          <a:off x="6315075" y="3548062"/>
           <a:ext cx="238125" cy="223838"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2990,23 +2348,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="타원 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +2372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4057649" y="3957637"/>
+          <a:off x="3267074" y="4700587"/>
           <a:ext cx="504825" cy="214313"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3058,451 +2416,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>10</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="타원 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="3948111"/>
-          <a:ext cx="495300" cy="233363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>11</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="타원 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4810125" y="3595687"/>
-          <a:ext cx="476250" cy="223838"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>12</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="타원 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5181600" y="3948111"/>
-          <a:ext cx="476250" cy="233363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>13</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="직사각형 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6038850" y="3781425"/>
-          <a:ext cx="523875" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="타원 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="3776662"/>
-          <a:ext cx="457200" cy="242888"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>14</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="타원 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3638549" y="4386262"/>
-          <a:ext cx="485775" cy="280988"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>15</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3811,9 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
@@ -3867,69 +2778,79 @@
       <c r="A3" s="105">
         <v>1</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
+      <c r="B3" s="126">
+        <v>44731</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="109"/>
       <c r="AA3" s="109"/>
       <c r="AB3" s="110"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="111">
-        <v>2</v>
-      </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="114"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="137"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="112"/>
       <c r="C5" s="106"/>
@@ -3957,20 +2878,20 @@
       <c r="Y5" s="107"/>
       <c r="Z5" s="107"/>
       <c r="AA5" s="107"/>
-      <c r="AB5" s="114"/>
+      <c r="AB5" s="113"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="111">
-        <v>4</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="109"/>
       <c r="E6" s="109"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="109"/>
-      <c r="I6" s="117"/>
+      <c r="I6" s="116"/>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
       <c r="L6" s="109"/>
@@ -3993,7 +2914,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="112"/>
       <c r="C7" s="106"/>
@@ -4025,7 +2946,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="112"/>
       <c r="C8" s="106"/>
@@ -4053,20 +2974,20 @@
       <c r="Y8" s="107"/>
       <c r="Z8" s="107"/>
       <c r="AA8" s="107"/>
-      <c r="AB8" s="114"/>
+      <c r="AB8" s="113"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="105">
-        <v>7</v>
-      </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="109"/>
-      <c r="I9" s="117"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
@@ -4089,16 +3010,16 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="111">
-        <v>8</v>
-      </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="109"/>
       <c r="E10" s="109"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="115"/>
       <c r="H10" s="109"/>
-      <c r="I10" s="117"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="109"/>
       <c r="K10" s="109"/>
       <c r="L10" s="109"/>
@@ -4121,16 +3042,16 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="105">
-        <v>9</v>
-      </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="109"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="109"/>
-      <c r="I11" s="117"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="109"/>
       <c r="K11" s="109"/>
       <c r="L11" s="109"/>
@@ -4153,16 +3074,16 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="111">
-        <v>10</v>
-      </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="109"/>
       <c r="E12" s="109"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="109"/>
-      <c r="I12" s="117"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="109"/>
@@ -4185,16 +3106,16 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="105">
-        <v>11</v>
-      </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="109"/>
       <c r="E13" s="109"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="115"/>
       <c r="H13" s="109"/>
-      <c r="I13" s="117"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="109"/>
       <c r="K13" s="109"/>
       <c r="L13" s="109"/>
@@ -4217,16 +3138,16 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="111">
-        <v>12</v>
-      </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="109"/>
       <c r="E14" s="109"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="109"/>
-      <c r="I14" s="117"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="109"/>
       <c r="K14" s="109"/>
       <c r="L14" s="109"/>
@@ -4249,16 +3170,16 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="105">
-        <v>13</v>
-      </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="109"/>
       <c r="E15" s="109"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="109"/>
-      <c r="I15" s="117"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="109"/>
       <c r="K15" s="109"/>
       <c r="L15" s="109"/>
@@ -4281,16 +3202,16 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="111">
-        <v>14</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="109"/>
       <c r="E16" s="109"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="115"/>
       <c r="H16" s="109"/>
-      <c r="I16" s="117"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="109"/>
       <c r="K16" s="109"/>
       <c r="L16" s="109"/>
@@ -4313,16 +3234,16 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="105">
-        <v>15</v>
-      </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="109"/>
       <c r="E17" s="109"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="115"/>
       <c r="H17" s="109"/>
-      <c r="I17" s="117"/>
+      <c r="I17" s="116"/>
       <c r="J17" s="109"/>
       <c r="K17" s="109"/>
       <c r="L17" s="109"/>
@@ -4345,16 +3266,16 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="111">
-        <v>16</v>
-      </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="109"/>
       <c r="E18" s="109"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="115"/>
       <c r="H18" s="109"/>
-      <c r="I18" s="117"/>
+      <c r="I18" s="116"/>
       <c r="J18" s="109"/>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
@@ -4377,16 +3298,16 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="105">
-        <v>17</v>
-      </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="109"/>
       <c r="E19" s="109"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="115"/>
       <c r="H19" s="109"/>
-      <c r="I19" s="117"/>
+      <c r="I19" s="116"/>
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="109"/>
@@ -4408,17 +3329,17 @@
       <c r="AB19" s="110"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="105">
-        <v>18</v>
-      </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="111">
+        <v>17</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="109"/>
       <c r="E20" s="109"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="109"/>
-      <c r="I20" s="117"/>
+      <c r="I20" s="116"/>
       <c r="J20" s="109"/>
       <c r="K20" s="109"/>
       <c r="L20" s="109"/>
@@ -4440,17 +3361,17 @@
       <c r="AB20" s="110"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="111">
-        <v>19</v>
-      </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="105">
+        <v>18</v>
+      </c>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="109"/>
       <c r="E21" s="109"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="115"/>
       <c r="H21" s="109"/>
-      <c r="I21" s="117"/>
+      <c r="I21" s="116"/>
       <c r="J21" s="109"/>
       <c r="K21" s="109"/>
       <c r="L21" s="109"/>
@@ -4472,17 +3393,17 @@
       <c r="AB21" s="110"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="105">
-        <v>20</v>
-      </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
+      <c r="A22" s="111">
+        <v>19</v>
+      </c>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="109"/>
       <c r="E22" s="109"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="115"/>
       <c r="H22" s="109"/>
-      <c r="I22" s="117"/>
+      <c r="I22" s="116"/>
       <c r="J22" s="109"/>
       <c r="K22" s="109"/>
       <c r="L22" s="109"/>
@@ -4504,15 +3425,17 @@
       <c r="AB22" s="110"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="105"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="105">
+        <v>20</v>
+      </c>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="109"/>
       <c r="E23" s="109"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="109"/>
-      <c r="I23" s="117"/>
+      <c r="I23" s="116"/>
       <c r="J23" s="109"/>
       <c r="K23" s="109"/>
       <c r="L23" s="109"/>
@@ -4534,63 +3457,63 @@
       <c r="AB23" s="110"/>
     </row>
     <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="123"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="122"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="123"/>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="123"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="123"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4604,7 +3527,7 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -4651,7 +3574,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4688,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="125"/>
+      <c r="S2" s="124"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4698,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="126"/>
+      <c r="AA2" s="125"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -5178,7 +4101,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5219,7 +4142,7 @@
       </c>
       <c r="R1" s="79"/>
       <c r="S1" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" s="76"/>
       <c r="U1" s="76"/>
@@ -5231,7 +4154,7 @@
       </c>
       <c r="Z1" s="79"/>
       <c r="AA1" s="80" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AB1" s="76"/>
       <c r="AC1" s="76"/>
@@ -5258,7 +4181,7 @@
       </c>
       <c r="K2" s="83"/>
       <c r="L2" s="86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="86"/>
       <c r="N2" s="86"/>
@@ -5268,7 +4191,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="83"/>
-      <c r="S2" s="88"/>
+      <c r="S2" s="88" t="s">
+        <v>86</v>
+      </c>
       <c r="T2" s="84"/>
       <c r="U2" s="84"/>
       <c r="V2" s="84"/>
@@ -5278,7 +4203,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="83"/>
-      <c r="AA2" s="90"/>
+      <c r="AA2" s="90" t="s">
+        <v>88</v>
+      </c>
       <c r="AB2" s="84"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="84"/>
@@ -5403,13 +4330,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -5419,38 +4346,38 @@
       </c>
       <c r="K6" s="40"/>
       <c r="L6" s="39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="40"/>
       <c r="P6" s="42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
       <c r="T6" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U6" s="40"/>
       <c r="V6" s="40"/>
       <c r="W6" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
       <c r="AA6" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="41"/>
       <c r="AC6" s="40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="40"/>
       <c r="AE6" s="42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="44"/>
     </row>
@@ -5481,7 +4408,7 @@
       <c r="N7" s="43"/>
       <c r="O7" s="40"/>
       <c r="P7" s="42" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
@@ -5515,19 +4442,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
       <c r="F8" s="39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="48"/>
       <c r="J8" s="42" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="39" t="s">
@@ -5537,7 +4464,7 @@
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
       <c r="P8" s="39" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
@@ -5548,7 +4475,7 @@
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="42" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
@@ -5571,19 +4498,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
       <c r="F9" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="48"/>
       <c r="J9" s="42" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="39" t="s">
@@ -5604,7 +4531,7 @@
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="42" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="X9" s="50"/>
       <c r="Y9" s="50"/>
@@ -5627,19 +4554,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
       <c r="I10" s="48"/>
       <c r="J10" s="42" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K10" s="43"/>
       <c r="L10" s="39" t="s">
@@ -5649,7 +4576,7 @@
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
@@ -5660,7 +4587,7 @@
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="42" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
@@ -5683,19 +4610,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="48"/>
       <c r="J11" s="42" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K11" s="43"/>
       <c r="L11" s="39" t="s">
@@ -5705,18 +4632,18 @@
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
       <c r="P11" s="39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
       <c r="T11" s="42" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
       <c r="W11" s="42" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="X11" s="50"/>
       <c r="Y11" s="50"/>
@@ -5738,45 +4665,45 @@
       <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48"/>
+      <c r="B12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
+        <v>69</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="42" t="s">
         <v>26</v>
       </c>
@@ -5794,50 +4721,50 @@
       <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
+      <c r="B13" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="40"/>
+        <v>77</v>
+      </c>
+      <c r="K13" s="43"/>
       <c r="L13" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
+        <v>60</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
       <c r="W13" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+        <v>94</v>
+      </c>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
       <c r="AA13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="40" t="s">
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="43" t="s">
         <v>26</v>
       </c>
       <c r="AD13" s="40"/>
@@ -5850,50 +4777,50 @@
       <c r="A14" s="46">
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
+      <c r="B14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="40"/>
+        <v>26</v>
+      </c>
+      <c r="K14" s="43"/>
       <c r="L14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="42" t="s">
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="40" t="s">
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="43" t="s">
         <v>26</v>
       </c>
       <c r="AD14" s="40"/>
@@ -5903,283 +4830,173 @@
       <c r="AF14" s="44"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A15" s="46">
-        <v>11</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>86</v>
-      </c>
+      <c r="A15" s="46"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="42" t="s">
-        <v>89</v>
-      </c>
+      <c r="F15" s="42"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="J15" s="42"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="L15" s="39"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
-      <c r="P15" s="42" t="s">
-        <v>65</v>
-      </c>
+      <c r="P15" s="42"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
-      <c r="T15" s="42" t="s">
-        <v>27</v>
-      </c>
+      <c r="T15" s="42"/>
       <c r="U15" s="40"/>
       <c r="V15" s="40"/>
-      <c r="W15" s="42" t="s">
-        <v>65</v>
-      </c>
+      <c r="W15" s="42"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
-      <c r="AA15" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA15" s="42"/>
       <c r="AB15" s="41"/>
-      <c r="AC15" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="AC15" s="40"/>
       <c r="AD15" s="40"/>
-      <c r="AE15" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="AE15" s="42"/>
       <c r="AF15" s="44"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A16" s="46">
-        <v>12</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>105</v>
-      </c>
+      <c r="A16" s="46"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="42" t="s">
-        <v>88</v>
-      </c>
+      <c r="F16" s="42"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="J16" s="42"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="42" t="s">
-        <v>72</v>
-      </c>
+      <c r="L16" s="42"/>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="42" t="s">
-        <v>81</v>
-      </c>
+      <c r="P16" s="42"/>
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
       <c r="S16" s="40"/>
-      <c r="T16" s="42" t="s">
-        <v>27</v>
-      </c>
+      <c r="T16" s="42"/>
       <c r="U16" s="40"/>
       <c r="V16" s="40"/>
-      <c r="W16" s="39" t="s">
-        <v>97</v>
-      </c>
+      <c r="W16" s="39"/>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="40"/>
-      <c r="AA16" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA16" s="42"/>
       <c r="AB16" s="41"/>
-      <c r="AC16" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="AC16" s="40"/>
       <c r="AD16" s="40"/>
-      <c r="AE16" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="AE16" s="42"/>
       <c r="AF16" s="44"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A17" s="46">
-        <v>13</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>104</v>
-      </c>
+      <c r="A17" s="46"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
-      <c r="F17" s="42" t="s">
-        <v>91</v>
-      </c>
+      <c r="F17" s="42"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="J17" s="42"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="42" t="s">
-        <v>72</v>
-      </c>
+      <c r="L17" s="42"/>
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="P17" s="42"/>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
-      <c r="T17" s="42" t="s">
-        <v>27</v>
-      </c>
+      <c r="T17" s="42"/>
       <c r="U17" s="40"/>
       <c r="V17" s="40"/>
-      <c r="W17" s="39" t="s">
-        <v>98</v>
-      </c>
+      <c r="W17" s="39"/>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
       <c r="Z17" s="40"/>
-      <c r="AA17" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA17" s="42"/>
       <c r="AB17" s="41"/>
-      <c r="AC17" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="AC17" s="40"/>
       <c r="AD17" s="40"/>
-      <c r="AE17" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="AE17" s="42"/>
       <c r="AF17" s="44"/>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A18" s="46">
-        <v>14</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>71</v>
-      </c>
+      <c r="A18" s="46"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
-      <c r="F18" s="39" t="s">
-        <v>84</v>
-      </c>
+      <c r="F18" s="39"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="48"/>
-      <c r="J18" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="J18" s="42"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="42" t="s">
-        <v>72</v>
-      </c>
+      <c r="L18" s="42"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
-      <c r="P18" s="39" t="s">
-        <v>73</v>
-      </c>
+      <c r="P18" s="39"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="43"/>
       <c r="S18" s="43"/>
-      <c r="T18" s="39" t="s">
-        <v>65</v>
-      </c>
+      <c r="T18" s="39"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
-      <c r="W18" s="39" t="s">
-        <v>99</v>
-      </c>
+      <c r="W18" s="39"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
-      <c r="AA18" s="42" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA18" s="42"/>
       <c r="AB18" s="48"/>
-      <c r="AC18" s="43" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC18" s="43"/>
       <c r="AD18" s="43"/>
-      <c r="AE18" s="42" t="s">
-        <v>65</v>
-      </c>
+      <c r="AE18" s="42"/>
       <c r="AF18" s="52"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A19" s="46">
-        <v>15</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="46"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
-      <c r="F19" s="39" t="s">
-        <v>41</v>
-      </c>
+      <c r="F19" s="39"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="48"/>
-      <c r="J19" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="J19" s="42"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="L19" s="39"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
-      <c r="P19" s="39" t="s">
-        <v>42</v>
-      </c>
+      <c r="P19" s="39"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
-      <c r="T19" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="T19" s="39"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
-      <c r="W19" s="39" t="s">
-        <v>26</v>
-      </c>
+      <c r="W19" s="39"/>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
-      <c r="AA19" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA19" s="39"/>
       <c r="AB19" s="48"/>
-      <c r="AC19" s="43" t="s">
-        <v>27</v>
-      </c>
+      <c r="AC19" s="43"/>
       <c r="AD19" s="43"/>
-      <c r="AE19" s="39" t="s">
-        <v>26</v>
-      </c>
+      <c r="AE19" s="39"/>
       <c r="AF19" s="49"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1">
@@ -6432,7 +5249,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -6479,7 +5296,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -6506,7 +5323,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -6516,7 +5333,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -6526,7 +5345,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="20"/>
+      <c r="AA2" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -6583,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -6596,14 +5417,14 @@
       <c r="I5" s="47"/>
       <c r="J5" s="55"/>
       <c r="K5" s="56" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="58"/>
       <c r="P5" s="39" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
@@ -6627,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -6640,14 +5461,14 @@
       <c r="I6" s="47"/>
       <c r="J6" s="55"/>
       <c r="K6" s="39" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="39" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
@@ -6667,31 +5488,31 @@
       <c r="AF6" s="49"/>
     </row>
     <row r="7" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="46">
+      <c r="A7" s="36">
         <v>3</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+        <v>94</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
       <c r="P7" s="39" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -6711,32 +5532,22 @@
       <c r="AF7" s="49"/>
     </row>
     <row r="8" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="36">
-        <v>4</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>116</v>
-      </c>
+      <c r="A8" s="36"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="39" t="s">
-        <v>101</v>
-      </c>
+      <c r="F8" s="39"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="63"/>
-      <c r="K8" s="42" t="s">
-        <v>110</v>
-      </c>
+      <c r="K8" s="42"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="39" t="s">
-        <v>123</v>
-      </c>
+      <c r="P8" s="39"/>
       <c r="Q8" s="40"/>
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
@@ -6755,32 +5566,22 @@
       <c r="AF8" s="44"/>
     </row>
     <row r="9" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="36">
-        <v>5</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>115</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="39" t="s">
-        <v>102</v>
-      </c>
+      <c r="F9" s="39"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="63"/>
-      <c r="K9" s="42" t="s">
-        <v>114</v>
-      </c>
+      <c r="K9" s="42"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="39" t="s">
-        <v>122</v>
-      </c>
+      <c r="P9" s="39"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
@@ -6799,32 +5600,22 @@
       <c r="AF9" s="44"/>
     </row>
     <row r="10" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="36">
-        <v>6</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>112</v>
-      </c>
+      <c r="A10" s="36"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="39" t="s">
-        <v>103</v>
-      </c>
+      <c r="F10" s="39"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="63"/>
-      <c r="K10" s="42" t="s">
-        <v>111</v>
-      </c>
+      <c r="K10" s="42"/>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="39" t="s">
-        <v>124</v>
-      </c>
+      <c r="P10" s="39"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
